--- a/feat_descriptions.xlsx
+++ b/feat_descriptions.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28308"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajaver/Documents/GitHub/single-worm-analysis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="20" windowWidth="25360" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="6080" yWindow="460" windowWidth="29980" windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -306,9 +314,6 @@
     <t>eigen_projection_</t>
   </si>
   <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>seconds</t>
   </si>
   <si>
@@ -435,7 +440,10 @@
     <t>Distance traveled during the event relative to the total distance covered during the experiment.</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Units</t>
   </si>
 </sst>
 </file>
@@ -1106,6 +1114,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1433,30 +1446,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.33203125" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="84.5" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>93</v>
       </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
       <c r="D1" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1467,10 +1481,10 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1481,10 +1495,10 @@
         <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1495,10 +1509,10 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1512,9 +1526,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
@@ -1526,10 +1540,10 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1540,10 +1554,10 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1557,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1568,13 +1582,10 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1585,10 +1596,10 @@
         <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1599,10 +1610,10 @@
         <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1616,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1630,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -1641,10 +1652,10 @@
         <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1655,10 +1666,10 @@
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1669,10 +1680,10 @@
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1686,13 +1697,13 @@
         <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1703,12 +1714,12 @@
         <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
@@ -1717,12 +1728,12 @@
         <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
         <v>79</v>
@@ -1731,12 +1742,12 @@
         <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
         <v>81</v>
@@ -1745,12 +1756,12 @@
         <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
@@ -1759,12 +1770,12 @@
         <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
@@ -1773,12 +1784,12 @@
         <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
         <v>91</v>
@@ -1787,12 +1798,12 @@
         <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
         <v>90</v>
@@ -1801,12 +1812,12 @@
         <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
@@ -1815,129 +1826,129 @@
         <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
         <v>120</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
         <v>127</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
         <v>128</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>130</v>
-      </c>
-      <c r="E31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" t="s">
-        <v>131</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" t="s">
         <v>134</v>
       </c>
-      <c r="B33" t="s">
-        <v>135</v>
-      </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,7 +1959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1956,7 +1967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1964,7 +1975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1972,12 +1983,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1985,12 +1996,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1998,7 +2009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2006,7 +2017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -2014,12 +2025,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>34</v>
       </c>
@@ -2027,7 +2038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -2035,17 +2046,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -2056,7 +2067,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -2067,7 +2078,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -2078,7 +2089,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -2089,7 +2100,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -2100,7 +2111,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -2114,10 +2125,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/feat_descriptions.xlsx
+++ b/feat_descriptions.xlsx
@@ -450,7 +450,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -490,6 +490,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1444,16 +1450,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="84.5" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2056,23 +2065,34 @@
         <v>17</v>
       </c>
     </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D53" t="s">
         <v>69</v>
@@ -2080,50 +2100,40 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" t="s">
-        <v>74</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
--- a/feat_descriptions.xlsx
+++ b/feat_descriptions.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajaver/Documents/GitHub/single-worm-analysis/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="460" windowWidth="29980" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="8620" yWindow="0" windowWidth="21080" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="158">
   <si>
     <t>length</t>
   </si>
@@ -444,6 +439,63 @@
   </si>
   <si>
     <t>Units</t>
+  </si>
+  <si>
+    <t>Maximum amplitude of the skeleton along its major axis.</t>
+  </si>
+  <si>
+    <t>Ratio between the maximum amplitudes on each side of the skeleton along its major axis.</t>
+  </si>
+  <si>
+    <t>Second larger peak of the fourier transform of the skeleton rotated over its major axis.</t>
+  </si>
+  <si>
+    <t>Larger peak of the fourier transform of the skeleton rotated over its major axis.</t>
+  </si>
+  <si>
+    <t>Length of the line extending from head to its tail.</t>
+  </si>
+  <si>
+    <t>Eccentricity of the worm's body calculated using the contour moments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The number of kinks (bends) in the skeleton.</t>
+  </si>
+  <si>
+    <t>Eigenworm coefficients calculated using the Stephens et al., 2008 method.</t>
+  </si>
+  <si>
+    <t>The largest foraging angle measured (nose bend) prior to returning to a straight, unbent position.</t>
+  </si>
+  <si>
+    <t>Foraging angular speed that quantifies how fast the nose is moving.</t>
+  </si>
+  <si>
+    <t>The angle of the worm's path divided by the distance travelled.</t>
+  </si>
+  <si>
+    <t>Frequency of the largest peak of the fourier transform over a time window of the Bends Means.</t>
+  </si>
+  <si>
+    <t>Amplitude of the largest peak of the fourier transform over a time window a time window of the Bends Means.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time duration a body part spends in a specific region of the plate. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mean angle along the skeleton.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Standard deviation of the angles along the skeleton. The sign is given by the corresponding Bend Means.</t>
+  </si>
+  <si>
+    <t>Segment speed.</t>
+  </si>
+  <si>
+    <t>Segment angular speed.</t>
+  </si>
+  <si>
+    <t>Segment orientation (absolute coordinates).</t>
   </si>
 </sst>
 </file>
@@ -512,8 +564,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="295">
+  <cellStyleXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -815,7 +869,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="295">
+  <cellStyles count="297">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -963,6 +1017,7 @@
     <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1110,6 +1165,7 @@
     <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1446,9 +1502,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="36.33203125" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -1456,7 +1514,7 @@
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>93</v>
       </c>
@@ -1470,7 +1528,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1484,7 +1542,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1498,7 +1556,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1512,7 +1570,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1526,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -1543,13 +1601,16 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
       <c r="D7" t="s">
         <v>59</v>
       </c>
@@ -1557,13 +1618,16 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
       </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
       <c r="D8" t="s">
         <v>59</v>
       </c>
@@ -1571,13 +1635,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
       <c r="D9" t="s">
         <v>60</v>
       </c>
@@ -1585,13 +1652,16 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
       </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
       <c r="D10" t="s">
         <v>60</v>
       </c>
@@ -1599,13 +1669,16 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
       </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
       <c r="D11" t="s">
         <v>61</v>
       </c>
@@ -1613,13 +1686,16 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
       <c r="D12" t="s">
         <v>62</v>
       </c>
@@ -1627,13 +1703,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
       </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
       <c r="D13" t="s">
         <v>63</v>
       </c>
@@ -1641,13 +1720,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>94</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
       </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" t="s">
         <v>64</v>
       </c>
@@ -1655,13 +1737,16 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
       </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" t="s">
         <v>77</v>
       </c>
@@ -1669,13 +1754,16 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
       </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
       <c r="D16" t="s">
         <v>77</v>
       </c>
@@ -1683,7 +1771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1703,13 +1791,16 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
       </c>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
       <c r="D18" t="s">
         <v>84</v>
       </c>
@@ -1717,13 +1808,16 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>114</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
       </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
       <c r="D19" t="s">
         <v>80</v>
       </c>
@@ -1731,13 +1825,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>113</v>
       </c>
       <c r="B20" t="s">
         <v>79</v>
       </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
       <c r="D20" t="s">
         <v>80</v>
       </c>
@@ -1745,13 +1842,16 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>112</v>
       </c>
       <c r="B21" t="s">
         <v>81</v>
       </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
       <c r="D21" s="2" t="s">
         <v>82</v>
       </c>
@@ -1759,13 +1859,16 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>111</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
       </c>
+      <c r="C22" t="s">
+        <v>153</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>66</v>
       </c>
@@ -1773,13 +1876,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>110</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
       </c>
+      <c r="C23" t="s">
+        <v>154</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>66</v>
       </c>
@@ -1787,13 +1893,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>109</v>
       </c>
       <c r="B24" t="s">
         <v>91</v>
       </c>
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>92</v>
       </c>
@@ -1801,13 +1910,16 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>108</v>
       </c>
       <c r="B25" t="s">
         <v>90</v>
       </c>
+      <c r="C25" t="s">
+        <v>156</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>92</v>
       </c>
@@ -1815,13 +1927,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>107</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
       <c r="D26" t="s">
         <v>65</v>
       </c>
@@ -1829,7 +1944,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -1846,7 +1961,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -1863,7 +1978,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -1880,7 +1995,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>104</v>
       </c>
@@ -1897,7 +2012,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1914,7 +2029,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -1931,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>133</v>
       </c>
@@ -1948,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -1959,7 +2074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1967,7 +2082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1975,7 +2090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1983,12 +2098,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="C39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1996,12 +2111,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -2009,7 +2124,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2017,7 +2132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -2025,12 +2140,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="C45" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>34</v>
       </c>
@@ -2038,7 +2153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -2046,17 +2161,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -2067,7 +2182,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -2078,7 +2193,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -2089,7 +2204,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -2100,7 +2215,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -2111,7 +2226,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>31</v>
       </c>
@@ -2125,5 +2240,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/feat_descriptions.xlsx
+++ b/feat_descriptions.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="165">
   <si>
     <t>length</t>
   </si>
@@ -496,6 +496,27 @@
   </si>
   <si>
     <t>Segment orientation (absolute coordinates).</t>
+  </si>
+  <si>
+    <t>(0, 8)</t>
+  </si>
+  <si>
+    <t>(8, 16)</t>
+  </si>
+  <si>
+    <t>(33, 41)</t>
+  </si>
+  <si>
+    <t>(41, 49)</t>
+  </si>
+  <si>
+    <t>(0, 3)(5, 8)</t>
+  </si>
+  <si>
+    <t>(46, 49)(41, 44)</t>
+  </si>
+  <si>
+    <t>(16, 33)</t>
   </si>
 </sst>
 </file>
@@ -564,8 +585,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="297">
+  <cellStyleXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -869,7 +896,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="297">
+  <cellStyles count="303">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1018,6 +1045,9 @@
     <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1166,6 +1196,9 @@
     <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1500,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2237,6 +2270,67 @@
         <v>68</v>
       </c>
     </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
